--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc208_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1004,10 +1028,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="J30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1051,28 +1075,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="3">
+      <c r="A32" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="3">
+      <c r="C32" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1097,28 +1121,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="3">
+      <c r="B34" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="C34" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="3">
+      <c r="D34" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="3">
+      <c r="E34" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="3">
+      <c r="F34" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="3">
+      <c r="G34" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="3">
+      <c r="H34" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="3">
+      <c r="I34" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1177,10 +1201,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1224,28 +1248,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="3">
+      <c r="C38" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1270,28 +1294,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1350,10 +1374,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1397,28 +1421,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="3">
+      <c r="A44" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="3">
+      <c r="C44" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1443,28 +1467,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="3">
+      <c r="I46" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1523,10 +1547,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1570,28 +1594,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="3">
+      <c r="C50" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1616,28 +1640,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1696,10 +1720,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="3" t="s">
+      <c r="J54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1743,28 +1767,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="3">
+      <c r="A56" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="C56" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1789,28 +1813,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="3">
+      <c r="C58" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="3">
+      <c r="D58" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="3">
+      <c r="I58" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1869,10 +1893,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="3" t="s">
+      <c r="J60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1916,28 +1940,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="A62" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="3">
+      <c r="C62" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1962,28 +1986,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="3">
+      <c r="I64" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2042,10 +2066,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="3" t="s">
+      <c r="J66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2089,28 +2113,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="3">
+      <c r="A68" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="3">
+      <c r="C68" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2135,28 +2159,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="3">
+      <c r="I70" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2215,10 +2239,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="3" t="s">
+      <c r="J72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2262,28 +2286,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="3">
+      <c r="A74" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="3">
+      <c r="B74" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="3">
+      <c r="C74" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="3">
+      <c r="E74" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="3">
+      <c r="F74" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="3">
+      <c r="G74" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="3">
+      <c r="H74" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2308,28 +2332,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="C76" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="3">
+      <c r="D76" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="3">
+      <c r="I76" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2388,10 +2412,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2435,28 +2459,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2481,28 +2505,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3083,10 +3107,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="J102" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3130,28 +3154,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="A104" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="3">
+      <c r="C104" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3176,28 +3200,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="3">
+      <c r="I106" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3836,10 +3860,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3883,28 +3907,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3929,28 +3953,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4009,10 +4033,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4056,28 +4080,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4102,28 +4126,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4182,10 +4206,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4229,28 +4253,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4275,28 +4299,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4379,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3" t="s">
+      <c r="J146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4402,28 +4426,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="3">
+      <c r="C148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4448,28 +4472,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4528,10 +4552,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4575,28 +4599,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4621,28 +4645,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4701,10 +4725,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4748,28 +4772,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4794,28 +4818,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4874,10 +4898,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="3" t="s">
+      <c r="J164" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4921,28 +4945,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="3">
+      <c r="C166" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4967,28 +4991,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5047,10 +5071,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="3" t="s">
+      <c r="J170" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5094,28 +5118,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="3">
+      <c r="A172" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="3">
+      <c r="C172" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5140,28 +5164,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="3">
+      <c r="B174" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="3">
+      <c r="C174" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="3">
+      <c r="D174" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="3">
+      <c r="E174" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="3">
+      <c r="F174" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="3">
+      <c r="G174" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="3">
+      <c r="H174" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="3">
+      <c r="I174" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5220,10 +5244,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5267,28 +5291,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5313,28 +5337,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5393,10 +5417,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="3" t="s">
+      <c r="J182" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5440,28 +5464,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="3">
+      <c r="A184" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="3">
+      <c r="B184" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="3">
+      <c r="C184" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="3">
+      <c r="E184" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="3">
+      <c r="F184" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="3">
+      <c r="G184" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="3">
+      <c r="H184" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5486,28 +5510,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="3">
+      <c r="C186" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="3">
+      <c r="D186" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="3">
+      <c r="I186" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5566,10 +5590,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="3" t="s">
+      <c r="J188" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5613,28 +5637,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="3">
+      <c r="A190" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="3">
+      <c r="C190" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5659,28 +5683,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="3">
+      <c r="C192" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="3">
+      <c r="D192" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="3">
+      <c r="I192" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5739,10 +5763,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K194" s="3" t="s">
+      <c r="J194" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K194" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5786,28 +5810,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="3">
+      <c r="A196" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D196" t="s" s="3">
+      <c r="C196" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D196" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5832,28 +5856,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="3">
+      <c r="B198" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="3">
+      <c r="C198" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="3">
+      <c r="D198" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="3">
+      <c r="E198" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="3">
+      <c r="F198" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="3">
+      <c r="G198" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="3">
+      <c r="H198" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="3">
+      <c r="I198" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5912,10 +5936,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5959,28 +5983,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6005,28 +6029,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6085,10 +6109,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="3" t="s">
+      <c r="J206" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6132,28 +6156,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="3">
+      <c r="A208" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="3">
+      <c r="B208" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="3">
+      <c r="C208" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="3">
+      <c r="E208" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="3">
+      <c r="F208" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="3">
+      <c r="G208" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="3">
+      <c r="H208" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6178,28 +6202,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="3">
+      <c r="B210" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="3">
+      <c r="C210" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="3">
+      <c r="D210" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="3">
+      <c r="E210" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="3">
+      <c r="F210" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="3">
+      <c r="G210" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="3">
+      <c r="H210" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="3">
+      <c r="I210" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6258,10 +6282,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6305,28 +6329,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6351,28 +6375,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6431,10 +6455,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="3" t="s">
+      <c r="J218" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6478,28 +6502,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="3">
+      <c r="A220" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="3">
+      <c r="C220" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6524,28 +6548,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="3">
+      <c r="B222" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="3">
+      <c r="C222" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="3">
+      <c r="D222" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="3">
+      <c r="E222" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="3">
+      <c r="F222" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="3">
+      <c r="G222" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="3">
+      <c r="H222" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="3">
+      <c r="I222" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6720,10 +6744,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="3" t="s">
+      <c r="J228" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6767,28 +6791,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="3">
+      <c r="A230" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="3">
+      <c r="C230" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6813,28 +6837,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="3">
+      <c r="C232" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="3">
+      <c r="D232" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="3">
+      <c r="I232" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6893,10 +6917,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="3" t="s">
+      <c r="J234" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6940,28 +6964,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="3">
+      <c r="A236" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="3">
+      <c r="C236" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6986,28 +7010,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="3">
+      <c r="B238" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="3">
+      <c r="C238" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="3">
+      <c r="D238" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="3">
+      <c r="E238" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="3">
+      <c r="F238" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="3">
+      <c r="G238" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="3">
+      <c r="H238" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="3">
+      <c r="I238" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7066,10 +7090,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7113,28 +7137,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7159,28 +7183,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7239,10 +7263,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="3" t="s">
+      <c r="J246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7286,28 +7310,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="3">
+      <c r="A248" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="3">
+      <c r="C248" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7332,28 +7356,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="3">
+      <c r="B250" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="3">
+      <c r="C250" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="3">
+      <c r="D250" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="3">
+      <c r="E250" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="3">
+      <c r="F250" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="3">
+      <c r="G250" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="3">
+      <c r="H250" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="3">
+      <c r="I250" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7412,10 +7436,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="3" t="s">
+      <c r="J252" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7459,28 +7483,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="3">
+      <c r="A254" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="3">
+      <c r="C254" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7505,28 +7529,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="3">
+      <c r="C256" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="3">
+      <c r="D256" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="3">
+      <c r="I256" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7585,10 +7609,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="3" t="s">
+      <c r="J258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7632,28 +7656,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="3">
+      <c r="A260" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="3">
+      <c r="C260" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7678,28 +7702,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
+      <c r="B262" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="3">
+      <c r="C262" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="3">
+      <c r="D262" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="3">
+      <c r="E262" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="3">
+      <c r="F262" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="3">
+      <c r="G262" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="3">
+      <c r="H262" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="3">
+      <c r="I262" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7758,10 +7782,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="J264" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7805,28 +7829,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="3">
+      <c r="A266" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="3">
+      <c r="C266" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7851,28 +7875,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="3">
+      <c r="B268" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="3">
+      <c r="C268" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="3">
+      <c r="D268" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="3">
+      <c r="E268" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="3">
+      <c r="F268" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="3">
+      <c r="G268" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="3">
+      <c r="H268" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="3">
+      <c r="I268" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7931,10 +7955,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="3" t="s">
+      <c r="J270" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7978,28 +8002,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="3">
+      <c r="A272" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="3">
+      <c r="C272" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8024,28 +8048,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="3">
+      <c r="B274" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="3">
+      <c r="C274" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="3">
+      <c r="D274" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="3">
+      <c r="E274" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="3">
+      <c r="F274" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="3">
+      <c r="G274" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="3">
+      <c r="H274" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="3">
+      <c r="I274" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8104,10 +8128,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="3" t="s">
+      <c r="J276" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8151,28 +8175,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="3">
+      <c r="A278" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="3">
+      <c r="B278" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="3">
+      <c r="C278" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="3">
+      <c r="E278" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="3">
+      <c r="F278" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="3">
+      <c r="G278" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="3">
+      <c r="H278" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8197,28 +8221,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="3">
+      <c r="B280" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="3">
+      <c r="C280" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="3">
+      <c r="D280" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="3">
+      <c r="E280" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="3">
+      <c r="F280" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="3">
+      <c r="G280" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="3">
+      <c r="H280" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="3">
+      <c r="I280" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8277,10 +8301,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="3" t="s">
+      <c r="J282" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8324,28 +8348,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="3">
+      <c r="A284" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="3">
+      <c r="B284" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="3">
+      <c r="C284" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="3">
+      <c r="E284" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="3">
+      <c r="F284" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="3">
+      <c r="G284" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="3">
+      <c r="H284" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8370,28 +8394,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="3">
+      <c r="B286" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="3">
+      <c r="C286" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="3">
+      <c r="D286" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="3">
+      <c r="E286" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="3">
+      <c r="F286" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="3">
+      <c r="G286" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="3">
+      <c r="H286" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="3">
+      <c r="I286" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8450,10 +8474,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="3" t="s">
+      <c r="J288" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8497,28 +8521,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="3">
+      <c r="A290" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="3">
+      <c r="B290" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="3">
+      <c r="C290" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="3">
+      <c r="E290" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="3">
+      <c r="F290" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="3">
+      <c r="G290" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="3">
+      <c r="H290" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8543,28 +8567,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="3">
+      <c r="B292" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="3">
+      <c r="C292" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="3">
+      <c r="D292" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="3">
+      <c r="E292" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="3">
+      <c r="F292" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="3">
+      <c r="G292" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="3">
+      <c r="H292" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="3">
+      <c r="I292" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8623,10 +8647,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="3" t="s">
+      <c r="J294" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8670,28 +8694,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="3">
+      <c r="A296" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="3">
+      <c r="B296" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="3">
+      <c r="C296" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="3">
+      <c r="E296" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="3">
+      <c r="F296" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="3">
+      <c r="G296" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="3">
+      <c r="H296" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8716,28 +8740,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="3">
+      <c r="B298" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="3">
+      <c r="C298" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="3">
+      <c r="D298" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="3">
+      <c r="E298" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="3">
+      <c r="F298" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="3">
+      <c r="G298" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="3">
+      <c r="H298" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="3">
+      <c r="I298" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8796,10 +8820,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="3" t="s">
+      <c r="J300" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8843,28 +8867,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="3">
+      <c r="A302" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="3">
+      <c r="B302" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="3">
+      <c r="C302" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="3">
+      <c r="E302" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="3">
+      <c r="F302" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="3">
+      <c r="G302" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="3">
+      <c r="H302" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8889,28 +8913,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="3">
+      <c r="B304" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="3">
+      <c r="C304" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="3">
+      <c r="D304" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="3">
+      <c r="E304" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="3">
+      <c r="F304" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="3">
+      <c r="G304" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="3">
+      <c r="H304" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="3">
+      <c r="I304" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8969,10 +8993,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="3" t="s">
+      <c r="J306" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
